--- a/Project/sampledata.xlsx
+++ b/Project/sampledata.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -998,7 +998,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1070,7 +1070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1106,7 +1106,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1178,7 +1178,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1232,7 +1232,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1304,7 +1304,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1322,7 +1322,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1358,7 +1358,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1376,7 +1376,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1394,7 +1394,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1466,7 +1466,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1502,7 +1502,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1520,7 +1520,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1556,7 +1556,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1592,7 +1592,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1610,7 +1610,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1664,7 +1664,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1736,7 +1736,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1754,7 +1754,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1790,7 +1790,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1826,7 +1826,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1862,7 +1862,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1880,7 +1880,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1898,7 +1898,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1916,7 +1916,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1934,7 +1934,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1970,7 +1970,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2006,7 +2006,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2024,7 +2024,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2060,7 +2060,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2078,7 +2078,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2114,7 +2114,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2150,7 +2150,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2168,7 +2168,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2186,7 +2186,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2204,7 +2204,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2222,7 +2222,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2240,7 +2240,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2276,7 +2276,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2294,7 +2294,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2330,7 +2330,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2366,7 +2366,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2402,7 +2402,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2420,7 +2420,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2510,7 +2510,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2564,7 +2564,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2582,7 +2582,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2600,7 +2600,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2654,7 +2654,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2726,7 +2726,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2744,7 +2744,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2780,7 +2780,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2816,7 +2816,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2834,7 +2834,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2852,7 +2852,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2870,7 +2870,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2888,7 +2888,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2906,7 +2906,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2942,7 +2942,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3050,7 +3050,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3068,7 +3068,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3086,7 +3086,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3104,7 +3104,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3122,7 +3122,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3140,7 +3140,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3176,7 +3176,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3194,7 +3194,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3248,7 +3248,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3266,7 +3266,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3302,7 +3302,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3320,7 +3320,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3338,7 +3338,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3356,7 +3356,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3374,7 +3374,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3392,7 +3392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3410,7 +3410,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3446,7 +3446,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3500,7 +3500,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3554,7 +3554,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3572,7 +3572,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3590,7 +3590,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3644,7 +3644,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3662,7 +3662,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3680,7 +3680,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3734,7 +3734,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3752,7 +3752,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3788,7 +3788,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3806,7 +3806,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3824,7 +3824,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3842,7 +3842,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3860,7 +3860,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3878,7 +3878,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3896,7 +3896,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3932,7 +3932,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3950,7 +3950,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3968,7 +3968,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3986,7 +3986,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4004,7 +4004,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4040,7 +4040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4130,7 +4130,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4166,7 +4166,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4184,7 +4184,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4202,7 +4202,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4256,7 +4256,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4274,7 +4274,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4292,7 +4292,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4328,7 +4328,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4346,7 +4346,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4400,7 +4400,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4436,7 +4436,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4454,7 +4454,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4472,7 +4472,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4490,7 +4490,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4508,7 +4508,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4544,7 +4544,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4562,7 +4562,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4580,7 +4580,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4598,7 +4598,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4616,7 +4616,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4634,7 +4634,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4652,7 +4652,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4670,7 +4670,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4688,7 +4688,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4706,7 +4706,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4742,7 +4742,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4760,7 +4760,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4778,7 +4778,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4796,7 +4796,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4814,7 +4814,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4850,7 +4850,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4868,7 +4868,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4886,7 +4886,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4904,7 +4904,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4922,7 +4922,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4940,7 +4940,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4976,7 +4976,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5030,7 +5030,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5084,7 +5084,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5102,7 +5102,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5120,7 +5120,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5138,7 +5138,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5174,7 +5174,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5192,7 +5192,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5228,7 +5228,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5246,7 +5246,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5282,7 +5282,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5300,7 +5300,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5336,7 +5336,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5354,7 +5354,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5390,7 +5390,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5426,7 +5426,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5480,7 +5480,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5498,7 +5498,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5534,7 +5534,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5552,7 +5552,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -5588,7 +5588,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -5624,7 +5624,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5642,7 +5642,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5660,7 +5660,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5696,7 +5696,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5714,7 +5714,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -5786,7 +5786,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5804,7 +5804,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5822,7 +5822,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5840,7 +5840,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5858,7 +5858,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5894,7 +5894,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -5912,7 +5912,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5930,7 +5930,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5948,7 +5948,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5966,7 +5966,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5984,7 +5984,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6020,7 +6020,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6038,7 +6038,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6074,7 +6074,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6092,7 +6092,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6128,7 +6128,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6146,7 +6146,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -6164,7 +6164,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6182,7 +6182,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6254,7 +6254,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6272,7 +6272,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6290,7 +6290,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6308,7 +6308,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -6326,7 +6326,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6344,7 +6344,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6362,7 +6362,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6380,7 +6380,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6416,7 +6416,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6434,7 +6434,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6470,7 +6470,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -6488,7 +6488,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6506,7 +6506,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6524,7 +6524,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6542,7 +6542,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6560,7 +6560,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -6578,7 +6578,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6596,7 +6596,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6614,7 +6614,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6632,7 +6632,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6650,7 +6650,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6686,7 +6686,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6704,7 +6704,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6722,7 +6722,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6740,7 +6740,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6758,7 +6758,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6776,7 +6776,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6812,7 +6812,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6830,7 +6830,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6848,7 +6848,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6866,7 +6866,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6884,7 +6884,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6902,7 +6902,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6920,7 +6920,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -6938,7 +6938,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6956,7 +6956,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6974,7 +6974,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -7010,7 +7010,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7028,7 +7028,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -7064,7 +7064,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7082,7 +7082,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7100,7 +7100,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7118,7 +7118,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7136,7 +7136,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7154,7 +7154,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -7172,7 +7172,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7208,7 +7208,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7226,7 +7226,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7244,7 +7244,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -7262,7 +7262,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -7280,7 +7280,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -7298,7 +7298,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -7334,7 +7334,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -7352,7 +7352,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -7370,7 +7370,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -7388,7 +7388,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -7406,7 +7406,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7424,7 +7424,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7442,7 +7442,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7460,7 +7460,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7496,7 +7496,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7532,7 +7532,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7550,7 +7550,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7568,7 +7568,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7586,7 +7586,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7622,7 +7622,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7640,7 +7640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -7658,7 +7658,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -7676,7 +7676,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -7694,7 +7694,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7712,7 +7712,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -7730,7 +7730,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7748,7 +7748,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -7766,7 +7766,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7802,7 +7802,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7820,7 +7820,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7856,7 +7856,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7874,7 +7874,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -7892,7 +7892,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7910,7 +7910,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -7928,7 +7928,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -7946,7 +7946,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7964,7 +7964,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -8000,7 +8000,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -8018,7 +8018,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -8054,7 +8054,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -8072,7 +8072,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8090,7 +8090,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8108,7 +8108,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -8126,7 +8126,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -8162,7 +8162,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -8198,7 +8198,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -8234,7 +8234,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -8252,7 +8252,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -8270,7 +8270,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -8288,7 +8288,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -8306,7 +8306,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -8324,7 +8324,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -8342,7 +8342,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -8360,7 +8360,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -8396,7 +8396,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -8414,7 +8414,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -8432,7 +8432,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -8450,7 +8450,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -8468,7 +8468,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -8486,7 +8486,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -8504,7 +8504,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -8522,7 +8522,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8540,7 +8540,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8558,7 +8558,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -8576,7 +8576,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -8594,7 +8594,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8612,7 +8612,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8630,7 +8630,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -8648,7 +8648,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8666,7 +8666,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -8684,7 +8684,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -8702,7 +8702,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8720,7 +8720,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -8738,7 +8738,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8756,7 +8756,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8774,7 +8774,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -8792,7 +8792,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8810,7 +8810,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8828,7 +8828,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8846,7 +8846,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8864,7 +8864,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -8882,7 +8882,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8900,7 +8900,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -8918,7 +8918,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -8936,7 +8936,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -8954,7 +8954,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -8972,7 +8972,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -8990,7 +8990,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -9008,7 +9008,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -9026,7 +9026,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -9044,7 +9044,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -9062,7 +9062,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -9080,7 +9080,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -9098,7 +9098,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -9116,7 +9116,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -9152,7 +9152,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -9170,7 +9170,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -9188,7 +9188,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -9206,7 +9206,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -9224,7 +9224,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -9242,7 +9242,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -9260,7 +9260,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -9296,7 +9296,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -9314,7 +9314,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -9332,7 +9332,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -9350,7 +9350,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -9368,7 +9368,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -9386,7 +9386,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -9404,7 +9404,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -9422,7 +9422,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -9440,7 +9440,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -9476,7 +9476,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -9512,7 +9512,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -9530,7 +9530,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -9548,7 +9548,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -9584,7 +9584,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -9602,7 +9602,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9620,7 +9620,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -9638,7 +9638,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -9656,7 +9656,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -9674,7 +9674,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -9692,7 +9692,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -9710,7 +9710,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -9728,7 +9728,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -9746,7 +9746,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -9764,7 +9764,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -9782,7 +9782,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -9800,7 +9800,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -9818,7 +9818,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -9836,7 +9836,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -9854,7 +9854,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -9872,7 +9872,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -9890,7 +9890,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -9908,7 +9908,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -9926,7 +9926,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -9944,7 +9944,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -9962,7 +9962,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -9980,7 +9980,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -9998,7 +9998,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -10016,7 +10016,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -10034,7 +10034,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -10052,7 +10052,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -10070,7 +10070,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -10088,7 +10088,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -10106,7 +10106,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -10124,7 +10124,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -10142,7 +10142,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -10160,7 +10160,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -10178,7 +10178,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -10196,7 +10196,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -10214,7 +10214,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -10232,7 +10232,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -10250,7 +10250,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -10268,7 +10268,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -10286,7 +10286,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -10304,7 +10304,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -10322,7 +10322,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -10340,7 +10340,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -10358,7 +10358,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -10376,7 +10376,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -10394,7 +10394,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -10412,7 +10412,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -10430,7 +10430,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -10448,7 +10448,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -10466,7 +10466,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -10484,7 +10484,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -10502,7 +10502,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -10520,7 +10520,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -10538,7 +10538,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -10556,7 +10556,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -10574,7 +10574,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -10592,7 +10592,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -10610,7 +10610,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -10628,7 +10628,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -10646,7 +10646,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -10664,7 +10664,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -10682,7 +10682,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -10700,7 +10700,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -10718,7 +10718,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -10736,7 +10736,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -10754,7 +10754,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -10772,7 +10772,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -10790,7 +10790,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -10808,7 +10808,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -10826,7 +10826,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -10844,7 +10844,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -10862,7 +10862,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -10880,7 +10880,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -10898,7 +10898,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -10916,7 +10916,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -10934,7 +10934,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -10952,7 +10952,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -10970,7 +10970,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -10988,7 +10988,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -11006,7 +11006,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -11024,7 +11024,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -11042,7 +11042,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -11060,7 +11060,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -11078,7 +11078,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -11096,7 +11096,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -11114,7 +11114,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -11132,7 +11132,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -11150,7 +11150,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -11168,7 +11168,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -11186,7 +11186,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -11204,7 +11204,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -11222,7 +11222,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -11240,7 +11240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -11258,7 +11258,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -11276,7 +11276,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -11294,7 +11294,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -11312,7 +11312,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -11330,7 +11330,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -11348,7 +11348,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -11366,7 +11366,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -11384,7 +11384,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -11402,7 +11402,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -11420,7 +11420,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -11438,7 +11438,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -11456,7 +11456,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -11474,7 +11474,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -11492,7 +11492,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -11510,7 +11510,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -11528,7 +11528,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -11546,7 +11546,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -11564,7 +11564,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -11582,7 +11582,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -11600,7 +11600,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -11618,7 +11618,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -11636,7 +11636,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -11654,7 +11654,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -11672,7 +11672,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -11690,7 +11690,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -11708,7 +11708,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -11726,7 +11726,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -11744,7 +11744,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -11762,7 +11762,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -11780,7 +11780,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -11798,7 +11798,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -11816,7 +11816,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -11834,7 +11834,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -11852,7 +11852,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -11870,7 +11870,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -11888,7 +11888,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -11906,7 +11906,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -11924,7 +11924,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -11942,7 +11942,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -11960,7 +11960,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -11978,7 +11978,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -11996,7 +11996,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -12014,7 +12014,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -12032,7 +12032,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -12050,7 +12050,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -12068,7 +12068,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -12086,7 +12086,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -12104,7 +12104,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -12122,7 +12122,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -12140,7 +12140,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -12158,7 +12158,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -12176,7 +12176,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -12194,7 +12194,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -12230,7 +12230,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -12248,7 +12248,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -12266,7 +12266,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -12284,7 +12284,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -12302,7 +12302,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -12320,7 +12320,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -12338,7 +12338,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -12356,7 +12356,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -12374,7 +12374,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -12392,7 +12392,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -12410,7 +12410,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -12428,7 +12428,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -12446,7 +12446,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -12464,7 +12464,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -12482,7 +12482,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -12500,7 +12500,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -12518,7 +12518,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -12536,7 +12536,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -12554,7 +12554,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -12572,7 +12572,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -12590,7 +12590,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -12608,7 +12608,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -12626,7 +12626,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -12644,7 +12644,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -12662,7 +12662,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -12680,7 +12680,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -12698,7 +12698,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -12716,7 +12716,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -12734,7 +12734,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -12752,7 +12752,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -12770,7 +12770,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -12788,7 +12788,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -12806,7 +12806,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -12824,7 +12824,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -12842,7 +12842,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -12860,7 +12860,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -12878,7 +12878,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -12896,7 +12896,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -12914,7 +12914,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -12932,7 +12932,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -12950,7 +12950,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -12968,7 +12968,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -12986,7 +12986,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -13004,7 +13004,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -13022,7 +13022,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -13040,7 +13040,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -13058,7 +13058,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -13076,7 +13076,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -13094,7 +13094,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -13112,7 +13112,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -13130,7 +13130,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -13148,7 +13148,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -13166,7 +13166,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -13184,7 +13184,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -13202,7 +13202,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -13220,7 +13220,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -13238,7 +13238,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -13256,7 +13256,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -13274,7 +13274,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -13292,7 +13292,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -13310,7 +13310,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -13328,7 +13328,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -13346,7 +13346,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -13364,7 +13364,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -13382,7 +13382,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -13400,7 +13400,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -13418,7 +13418,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -13436,7 +13436,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -13454,7 +13454,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -13472,7 +13472,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -13490,7 +13490,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -13508,7 +13508,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -13526,7 +13526,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -13544,7 +13544,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -13562,7 +13562,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -13580,7 +13580,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -13598,7 +13598,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -13616,7 +13616,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -13634,7 +13634,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -13652,7 +13652,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -13670,7 +13670,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -13688,7 +13688,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -13706,7 +13706,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -13724,7 +13724,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -13742,7 +13742,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -13760,7 +13760,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -13778,7 +13778,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -13796,7 +13796,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -13814,7 +13814,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -13832,7 +13832,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -13850,7 +13850,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -13868,7 +13868,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -13886,7 +13886,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -13904,7 +13904,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -13922,7 +13922,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -13940,7 +13940,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -13958,7 +13958,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -13976,7 +13976,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -13994,7 +13994,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -14012,7 +14012,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -14030,7 +14030,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -14048,7 +14048,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -14066,7 +14066,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -14084,7 +14084,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -14102,7 +14102,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -14120,7 +14120,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -14138,7 +14138,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -14156,7 +14156,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -14174,7 +14174,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -14192,7 +14192,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -14210,7 +14210,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -14228,7 +14228,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -14246,7 +14246,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -14264,7 +14264,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -14282,7 +14282,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -14300,7 +14300,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -14336,7 +14336,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -14354,7 +14354,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -14372,7 +14372,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -14408,7 +14408,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -14426,7 +14426,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -14444,7 +14444,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -14462,7 +14462,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -14480,7 +14480,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -14498,7 +14498,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -14516,7 +14516,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -14534,7 +14534,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -14552,7 +14552,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -14570,7 +14570,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -14588,7 +14588,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -14606,7 +14606,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -14624,7 +14624,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -14642,7 +14642,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -14660,7 +14660,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -14678,7 +14678,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -14696,7 +14696,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -14714,7 +14714,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -14732,7 +14732,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -14750,7 +14750,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -14768,7 +14768,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -14786,7 +14786,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -14804,7 +14804,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -14822,7 +14822,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -14840,7 +14840,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -14858,7 +14858,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -14876,7 +14876,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -14894,7 +14894,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -14912,7 +14912,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -14930,7 +14930,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -14948,7 +14948,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -14966,7 +14966,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -14984,7 +14984,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -15002,7 +15002,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -15020,7 +15020,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -15038,7 +15038,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -15056,7 +15056,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -15074,7 +15074,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -15092,7 +15092,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -15110,7 +15110,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -15128,7 +15128,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -15146,7 +15146,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -15164,7 +15164,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -15182,7 +15182,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -15200,7 +15200,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -15218,7 +15218,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -15236,7 +15236,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -15254,7 +15254,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -15272,7 +15272,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -15290,7 +15290,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -15308,7 +15308,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -15326,7 +15326,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -15344,7 +15344,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -15362,7 +15362,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -15380,7 +15380,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -15398,7 +15398,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -15416,7 +15416,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -15434,7 +15434,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -15452,7 +15452,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -15470,7 +15470,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -15488,7 +15488,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -15506,7 +15506,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -15524,7 +15524,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -15542,7 +15542,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -15560,7 +15560,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -15578,7 +15578,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -15596,7 +15596,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -15614,7 +15614,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -15632,7 +15632,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -15650,7 +15650,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -15668,7 +15668,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -15686,7 +15686,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -15704,7 +15704,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -15722,7 +15722,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -15740,7 +15740,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -15758,7 +15758,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -15776,7 +15776,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -15794,7 +15794,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -15812,7 +15812,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -15830,7 +15830,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -15848,7 +15848,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -15866,7 +15866,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -15884,7 +15884,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -15902,7 +15902,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -15920,7 +15920,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -15938,7 +15938,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -15956,7 +15956,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -15974,7 +15974,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -15992,7 +15992,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -16010,7 +16010,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -16028,7 +16028,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -16046,7 +16046,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -16064,7 +16064,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -16082,7 +16082,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -16100,7 +16100,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -16118,7 +16118,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -16136,7 +16136,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -16154,7 +16154,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -16172,7 +16172,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -16190,7 +16190,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -16208,7 +16208,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -16226,7 +16226,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -16244,7 +16244,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -16262,7 +16262,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -16280,7 +16280,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -16298,7 +16298,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -16316,7 +16316,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -16334,7 +16334,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -16352,7 +16352,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -16370,7 +16370,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -16388,7 +16388,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -16406,7 +16406,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -16424,7 +16424,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -16442,7 +16442,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -16460,7 +16460,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -16478,7 +16478,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -16496,7 +16496,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -16514,7 +16514,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -16532,7 +16532,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -16550,7 +16550,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -16568,7 +16568,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -16586,7 +16586,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -16604,7 +16604,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -16622,7 +16622,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -16640,7 +16640,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -16658,7 +16658,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -16676,7 +16676,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -16694,7 +16694,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -16712,7 +16712,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -16730,7 +16730,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -16748,7 +16748,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -16766,7 +16766,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -16784,7 +16784,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -16802,7 +16802,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -16820,7 +16820,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -16838,7 +16838,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -16856,7 +16856,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -16874,7 +16874,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -16892,7 +16892,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -16910,7 +16910,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -16928,7 +16928,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -16946,7 +16946,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -16964,7 +16964,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -16982,7 +16982,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -17000,7 +17000,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -17018,7 +17018,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -17036,7 +17036,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -17054,7 +17054,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -17072,7 +17072,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -17090,7 +17090,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -17108,7 +17108,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -17126,7 +17126,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -17144,7 +17144,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -17162,7 +17162,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -17180,7 +17180,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -17198,7 +17198,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -17216,7 +17216,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -17234,7 +17234,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -17252,7 +17252,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -17270,7 +17270,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -17288,7 +17288,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -17306,7 +17306,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -17324,7 +17324,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -17342,7 +17342,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -17360,7 +17360,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -17378,7 +17378,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -17396,7 +17396,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -17414,7 +17414,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -17432,7 +17432,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -17450,7 +17450,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -17468,7 +17468,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -17486,7 +17486,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -17504,7 +17504,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -17522,7 +17522,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -17540,7 +17540,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -17558,7 +17558,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -17576,7 +17576,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -17594,7 +17594,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -17612,7 +17612,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -17630,7 +17630,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -17648,7 +17648,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -17666,7 +17666,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -17684,7 +17684,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -17702,7 +17702,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -17720,7 +17720,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -17738,7 +17738,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -17756,7 +17756,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -17774,7 +17774,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -17792,7 +17792,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -17810,7 +17810,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -17828,7 +17828,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -17846,7 +17846,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -17864,7 +17864,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -17882,7 +17882,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -17900,7 +17900,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -17918,7 +17918,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -17936,7 +17936,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -17954,7 +17954,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -17972,7 +17972,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -17990,7 +17990,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -18008,7 +18008,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -18026,7 +18026,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -18044,7 +18044,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -18062,7 +18062,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -18080,7 +18080,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -18098,7 +18098,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -18116,7 +18116,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -18134,7 +18134,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -18152,7 +18152,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -18170,7 +18170,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -18188,7 +18188,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -18206,7 +18206,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -18224,7 +18224,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -18242,7 +18242,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -18260,7 +18260,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -18278,7 +18278,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -18296,7 +18296,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -18314,7 +18314,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -18332,7 +18332,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -18350,7 +18350,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -18368,7 +18368,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -18386,7 +18386,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -18404,7 +18404,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -18422,7 +18422,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -18440,7 +18440,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Clothes</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
